--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -509,16 +509,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -541,16 +541,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -637,16 +637,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -669,16 +669,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -733,16 +733,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -861,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -902,7 +902,7 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1066,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1203,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1258,16 +1258,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1591,16 +1591,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1952,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2116,16 +2116,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D4">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2180,16 +2180,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D6">
         <v>44</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2244,16 +2244,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2285,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2340,16 +2340,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D11">
         <v>48</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>43</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2445,7 +2445,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2477,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2618,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2705,16 +2705,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C6">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2769,16 +2769,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>29</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2865,16 +2865,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C11">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2929,16 +2929,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2970,7 +2970,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -3002,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3111,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3166,16 +3166,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3358,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3691,16 +3691,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3764,7 +3764,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3883,16 +3883,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3924,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4193,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4216,16 +4216,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4289,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4408,16 +4408,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4449,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4545,7 +4545,7 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -4577,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4609,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4741,16 +4741,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4782,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4933,16 +4933,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5211,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5234,16 +5234,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5266,16 +5266,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5362,16 +5362,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5394,16 +5394,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5435,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5458,16 +5458,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -5499,7 +5499,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -5522,16 +5522,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -5554,16 +5554,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -5586,16 +5586,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -5618,16 +5618,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5791,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -5800,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5832,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5864,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5928,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -5992,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6024,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -6152,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -6293,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6316,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -6325,7 +6325,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -6357,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -6389,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -6485,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -6508,7 +6508,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -6517,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -6549,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -6581,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -6818,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7106,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>32</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -7343,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D4">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D10">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7631,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>32</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7891,16 +7891,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -7932,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -7964,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8083,16 +8083,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -8124,7 +8124,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8284,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>3</v>

--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -541,16 +541,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -669,16 +669,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -733,16 +733,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -797,16 +797,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -829,16 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -861,16 +861,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -902,7 +902,7 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1066,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1194,16 +1194,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1258,16 +1258,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1591,16 +1591,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1719,16 +1719,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1952,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2116,16 +2116,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2180,16 +2180,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D6">
         <v>44</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2244,16 +2244,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2285,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D10">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2340,16 +2340,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D11">
         <v>48</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>43</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2445,7 +2445,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2477,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2618,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2682,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2705,16 +2705,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C6">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2769,16 +2769,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>29</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2865,16 +2865,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2929,16 +2929,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2970,7 +2970,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -3002,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3111,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3166,16 +3166,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3358,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3691,16 +3691,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3764,7 +3764,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3883,16 +3883,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3924,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4193,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4216,16 +4216,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4289,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4408,16 +4408,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4449,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4545,7 +4545,7 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -4577,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4609,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4741,16 +4741,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4782,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4933,16 +4933,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5211,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5243,7 +5243,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5266,16 +5266,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5371,7 +5371,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5394,16 +5394,16 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5435,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5458,16 +5458,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -5499,7 +5499,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -5522,16 +5522,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -5554,16 +5554,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -5586,16 +5586,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>48</v>
       </c>
       <c r="D14">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -5618,16 +5618,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5791,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -5800,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5832,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5864,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5928,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5983,7 +5983,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -5992,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6024,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -6152,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -6293,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6316,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -6325,7 +6325,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -6357,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -6389,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -6485,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -6508,7 +6508,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -6517,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -6549,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -6581,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -6818,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7106,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C13">
         <v>31</v>
       </c>
       <c r="D13">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16">
         <v>32</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -7343,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D4">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D6">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7631,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16">
         <v>32</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7891,16 +7891,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -7932,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -7964,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8083,16 +8083,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -8124,7 +8124,7 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8284,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>3</v>

--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -4872,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4968,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -5029,13 +5029,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>326</v>
@@ -5061,13 +5061,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>326</v>

--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -806,7 +806,7 @@
         <v>73</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -838,7 +838,7 @@
         <v>125</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -870,7 +870,7 @@
         <v>85</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -902,7 +902,7 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1075,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1203,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1664,7 +1664,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1888,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1952,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1984,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2116,16 +2116,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2180,16 +2180,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2285,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2308,16 +2308,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2340,16 +2340,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>43</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2445,7 +2445,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2477,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2580,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2618,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2641,16 +2641,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2676,13 +2676,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2705,16 +2705,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2772,13 +2772,13 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2804,13 +2804,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2833,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2865,16 +2865,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>62</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2970,7 +2970,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -3002,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3028,13 +3028,13 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3111,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3175,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3239,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3527,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3700,7 +3700,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3764,7 +3764,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3924,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4193,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4225,7 +4225,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4289,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4449,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4545,7 +4545,7 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -4577,7 +4577,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4609,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4686,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4750,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4782,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4974,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5211,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5243,7 +5243,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5275,7 +5275,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5371,7 +5371,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5403,7 +5403,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5435,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5467,7 +5467,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -5499,7 +5499,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -5531,7 +5531,7 @@
         <v>92</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -5563,7 +5563,7 @@
         <v>128</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -5595,7 +5595,7 @@
         <v>150</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -5627,7 +5627,7 @@
         <v>107</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5800,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5832,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5864,7 +5864,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5928,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6024,7 +6024,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -6152,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6261,7 +6261,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -6293,7 +6293,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6325,7 +6325,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -6357,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -6389,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -6485,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -6517,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -6549,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -6581,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +6645,7 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -6777,16 +6777,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -6818,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6841,16 +6841,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -6873,16 +6873,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -6905,16 +6905,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6969,16 +6969,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7001,16 +7001,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7033,16 +7033,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7065,16 +7065,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7106,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +7129,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7161,16 +7161,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7193,16 +7193,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7225,16 +7225,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7302,16 +7302,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -7343,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -7398,16 +7398,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7430,16 +7430,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,16 +7494,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7526,16 +7526,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7558,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7590,16 +7590,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7631,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7686,16 +7686,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7718,16 +7718,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7750,16 +7750,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -7868,7 +7868,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7900,7 +7900,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -7932,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -7955,16 +7955,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -8115,16 +8115,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8284,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>

--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="25">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -1815,13 +1817,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>34</v>
@@ -2116,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -2180,13 +2182,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -2276,13 +2278,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>158</v>
@@ -2308,13 +2310,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -2340,13 +2342,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>34</v>
@@ -2404,13 +2406,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>199</v>
@@ -4107,6 +4109,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>404</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>371</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>371</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>415</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>371</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>404</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>396</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>371</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>388</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>199</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>388</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>388</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>388</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>404</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>167</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>443</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>288</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>436</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="G8">
+        <v>216</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>444</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>436</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>194</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>194</v>
+      </c>
+      <c r="E13">
+        <v>199</v>
+      </c>
+      <c r="G13">
+        <v>360</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>213</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <v>220</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>212</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
@@ -5727,13 +6779,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5759,13 +6811,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>42</v>
@@ -5791,13 +6843,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -5823,13 +6875,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -5855,13 +6907,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -5919,13 +6971,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>124</v>
@@ -5951,13 +7003,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>158</v>
@@ -5983,13 +7035,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -6015,7 +7067,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -6047,13 +7099,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>207</v>
@@ -6079,13 +7131,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>199</v>
@@ -6111,13 +7163,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>280</v>
@@ -6143,13 +7195,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>282</v>
@@ -6178,10 +7230,10 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>6</v>

--- a/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -479,16 +479,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -511,16 +511,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -543,16 +543,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -578,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -607,16 +607,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -639,16 +639,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -671,16 +671,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -703,16 +703,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -735,16 +735,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -767,16 +767,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -799,16 +799,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -831,16 +831,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -863,16 +863,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -895,16 +895,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -927,16 +927,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1036,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1068,16 +1068,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1100,16 +1100,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1132,16 +1132,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1164,16 +1164,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1196,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1228,16 +1228,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1260,16 +1260,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1292,16 +1292,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1356,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1388,16 +1388,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1420,16 +1420,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1452,16 +1452,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1529,16 +1529,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1561,16 +1561,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1593,16 +1593,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1625,16 +1625,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1657,16 +1657,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1689,16 +1689,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1753,16 +1753,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1785,16 +1785,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1817,16 +1817,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1849,16 +1849,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1881,16 +1881,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1945,16 +1945,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1977,16 +1977,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2054,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2086,16 +2086,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2118,16 +2118,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>440</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2150,16 +2150,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2182,16 +2182,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>440</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2214,16 +2214,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2246,16 +2246,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2278,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2310,16 +2310,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2342,16 +2342,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2374,16 +2374,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2406,16 +2406,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2438,16 +2438,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2470,16 +2470,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2502,16 +2502,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2579,16 +2579,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2611,16 +2611,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2643,16 +2643,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2675,16 +2675,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2707,16 +2707,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>430</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>430</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>430</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2739,16 +2739,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2771,16 +2771,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2803,16 +2803,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2835,16 +2835,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2867,16 +2867,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>432</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>432</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>432</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2899,16 +2899,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2931,16 +2931,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2963,16 +2963,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2995,16 +2995,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3027,16 +3027,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3136,16 +3136,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3168,16 +3168,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3200,16 +3200,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3232,16 +3232,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3264,16 +3264,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3296,16 +3296,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3328,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3360,16 +3360,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3395,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3424,16 +3424,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3456,16 +3456,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3488,16 +3488,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3520,16 +3520,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3552,16 +3552,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3629,16 +3629,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3661,16 +3661,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3693,16 +3693,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3725,16 +3725,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3757,16 +3757,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3789,16 +3789,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3821,16 +3821,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3853,7 +3853,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3885,16 +3885,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3920,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3949,16 +3949,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4013,16 +4013,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4045,16 +4045,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4077,16 +4077,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4154,16 +4154,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -4186,16 +4186,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -4218,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -4227,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -4250,16 +4250,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -4282,16 +4282,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -4314,16 +4314,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4346,16 +4346,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -4378,16 +4378,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -4410,7 +4410,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -4419,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -4442,16 +4442,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -4474,16 +4474,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -4506,16 +4506,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -4538,16 +4538,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -4570,16 +4570,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -4602,16 +4602,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4679,16 +4679,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -4711,16 +4711,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4743,16 +4743,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -4775,16 +4775,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -4807,16 +4807,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -4839,16 +4839,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4871,16 +4871,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -4903,16 +4903,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -4935,16 +4935,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -4967,16 +4967,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -4999,16 +4999,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5031,16 +5031,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="D13">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -5063,16 +5063,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="D14">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -5095,16 +5095,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="D15">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -5127,16 +5127,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -5204,16 +5204,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5236,16 +5236,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5268,16 +5268,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5300,16 +5300,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5332,16 +5332,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5364,16 +5364,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5396,16 +5396,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5460,16 +5460,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -5492,16 +5492,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5524,16 +5524,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5556,16 +5556,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5588,16 +5588,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -5620,16 +5620,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -5652,16 +5652,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5729,16 +5729,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5761,16 +5761,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5793,16 +5793,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5825,16 +5825,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5857,16 +5857,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5889,16 +5889,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5921,16 +5921,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5953,7 +5953,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5985,16 +5985,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6017,16 +6017,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6049,16 +6049,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6113,16 +6113,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6145,16 +6145,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -6177,16 +6177,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6254,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6263,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -6286,16 +6286,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6318,16 +6318,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -6350,16 +6350,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6382,16 +6382,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -6414,16 +6414,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -6446,16 +6446,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6478,16 +6478,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6510,16 +6510,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6542,16 +6542,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -6574,16 +6574,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -6606,16 +6606,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -6638,16 +6638,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -6670,16 +6670,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -6702,16 +6702,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6779,7 +6779,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6788,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -6820,7 +6820,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6843,16 +6843,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -6875,16 +6875,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -6907,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -6939,16 +6939,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6971,16 +6971,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7003,16 +7003,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7035,16 +7035,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -7067,16 +7067,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -7099,16 +7099,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7131,16 +7131,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7163,16 +7163,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -7195,16 +7195,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -7227,16 +7227,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7304,16 +7304,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -7336,16 +7336,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -7368,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -7377,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -7400,16 +7400,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -7432,16 +7432,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -7464,16 +7464,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7496,16 +7496,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -7528,16 +7528,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -7560,7 +7560,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -7569,7 +7569,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -7592,16 +7592,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -7624,16 +7624,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -7656,16 +7656,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -7688,16 +7688,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -7720,16 +7720,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -7752,16 +7752,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -7829,16 +7829,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -7861,16 +7861,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7893,16 +7893,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -7925,16 +7925,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7957,16 +7957,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7989,16 +7989,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8021,16 +8021,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -8053,16 +8053,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -8085,16 +8085,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -8117,16 +8117,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -8149,16 +8149,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8181,16 +8181,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>193</v>
+        <v>435</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="D13">
-        <v>193</v>
+        <v>435</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -8213,16 +8213,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="D14">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -8245,16 +8245,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="D15">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -8277,16 +8277,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -8354,16 +8354,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -8386,16 +8386,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -8418,16 +8418,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -8450,16 +8450,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>342</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -8482,16 +8482,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -8514,16 +8514,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8546,16 +8546,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -8578,16 +8578,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -8610,16 +8610,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -8642,16 +8642,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>440</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -8674,16 +8674,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8706,16 +8706,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="D13">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -8738,16 +8738,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="D14">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -8770,16 +8770,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="D15">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -8802,16 +8802,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>247</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -8879,16 +8879,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -8911,16 +8911,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -8943,16 +8943,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -8975,16 +8975,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -9007,16 +9007,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -9039,16 +9039,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9071,16 +9071,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9103,7 +9103,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>158</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -9135,16 +9135,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -9167,16 +9167,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -9199,16 +9199,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9231,16 +9231,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9263,16 +9263,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -9295,16 +9295,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -9327,16 +9327,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
